--- a/data/trans_camb/P48_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P48_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,92</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>-9,68</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,96</t>
+          <t>-12,49</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-4,76</t>
+          <t>6,35</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-3,82</t>
+          <t>-3,33</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-4,7</t>
+          <t>-2,56</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-3,87</t>
+          <t>-1,42</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-1,69</t>
+          <t>18,53</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-3,23</t>
+          <t>-0,85</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-5,24</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-5,63</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>13,56</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-20,19; 13,3</t>
+          <t>-23,1; 27,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-19,32; 17,12</t>
+          <t>-33,17; 15,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-21,61; 14,54</t>
+          <t>-36,49; 12,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-22,55; 9,44</t>
+          <t>-21,79; 33,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-18,73; 11,33</t>
+          <t>-18,68; 12,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-20,86; 10,01</t>
+          <t>-18,81; 13,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-15,87; 8,38</t>
+          <t>-16,82; 14,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-14,01; 10,89</t>
+          <t>-1,32; 36,66</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-14,88; 9,34</t>
+          <t>-15,3; 14,3</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-20,34; 8,69</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-20,76; 8,24</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-1,67; 29,72</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-9,53%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>-24,77%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-6,39%</t>
+          <t>-31,98%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-15,35%</t>
+          <t>16,26%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-12,32%</t>
+          <t>-16,26%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-15,13%</t>
+          <t>-12,48%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-12,56%</t>
+          <t>-6,95%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-5,47%</t>
+          <t>90,41%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-10,49%</t>
+          <t>-2,98%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-18,4%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-19,77%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>47,62%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-51,94; 63,7</t>
+          <t>-46,64; 115,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-49,67; 73,87</t>
+          <t>-67,66; 63,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-54,76; 65,4</t>
+          <t>-71,95; 49,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-57,17; 46,26</t>
+          <t>-40,35; 137,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-52,64; 51,62</t>
+          <t>-68,24; 125,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-53,86; 46,02</t>
+          <t>-66,96; 120,1</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-42,58; 33,4</t>
+          <t>-60,9; 117,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-37,3; 45,82</t>
+          <t>-5,36; 331,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-40,96; 39,62</t>
+          <t>-45,01; 67,17</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-55,63; 42,56</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-58,25; 39,79</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-9,46; 135,54</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-8,77</t>
+          <t>-9,09</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,87</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,01</t>
+          <t>-3,4</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,73</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>-6,37</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,09</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-6,64</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>8,45</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-2,1</t>
+          <t>-7,81</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-1,18</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-2,58</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>2,6</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-25,45; 8,76</t>
+          <t>-32,56; 13,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-17,24; 18,07</t>
+          <t>-23,9; 22,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-19,8; 15,48</t>
+          <t>-28,49; 21,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-19,09; 10,07</t>
+          <t>-28,84; 24,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-15,44; 12,57</t>
+          <t>-26,26; 12,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-16,73; 10,63</t>
+          <t>-18,24; 18,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-18,21; 3,75</t>
+          <t>-18,76; 16,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-11,69; 10,82</t>
+          <t>-9,92; 29,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-12,5; 8,92</t>
+          <t>-23,86; 6,01</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-17,27; 12,7</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-16,99; 12,89</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-15,31; 19,52</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-27,19%</t>
+          <t>-31,01%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,68%</t>
+          <t>-6,06%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-6,24%</t>
+          <t>-11,58%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-13,61%</t>
+          <t>-2,04%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-1,65%</t>
+          <t>-17,4%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-6,02%</t>
+          <t>-0,56%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-19,81%</t>
+          <t>-3,13%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-2,2%</t>
+          <t>23,08%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-6,28%</t>
+          <t>-23,72%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-3,58%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-7,82%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>7,89%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-62,23; 36,45</t>
+          <t>-72,85; 59,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-41,8; 81,74</t>
+          <t>-57,91; 117,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-50,02; 65,83</t>
+          <t>-64,74; 106,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-46,27; 39,62</t>
+          <t>-60,23; 114,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-36,18; 48,6</t>
+          <t>-57,99; 49,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-39,8; 38,94</t>
+          <t>-39,18; 68,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-47,76; 14,11</t>
+          <t>-42,76; 61,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-29,95; 38,58</t>
+          <t>-23,08; 106,2</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-32,18; 32,08</t>
+          <t>-58,7; 23,28</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-42,68; 49,66</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-43,78; 47,86</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-35,6; 75,19</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-4,96</t>
+          <t>3,04</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-10,62</t>
+          <t>-8,13</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-12,99</t>
+          <t>-9,49</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-7,88</t>
+          <t>-5,54</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-10,08</t>
+          <t>-7,02</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-11,09</t>
+          <t>-9,19</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-6,49</t>
+          <t>-9,9</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-10,34</t>
+          <t>-5,78</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-12,05</t>
+          <t>-3,17</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-8,77</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-9,66</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-5,52</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-26,28; 11,04</t>
+          <t>-17,99; 20,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-26,49; 4,04</t>
+          <t>-25,26; 11,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-28,84; 2,07</t>
+          <t>-26,62; 9,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-20,64; 4,02</t>
+          <t>-25,42; 11,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-22,89; 0,57</t>
+          <t>-22,36; 8,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-24,2; -0,35</t>
+          <t>-22,84; 3,73</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-18,27; 4,66</t>
+          <t>-23,63; 2,73</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-19,51; -0,73</t>
+          <t>-20,41; 8,65</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-21,59; -1,98</t>
+          <t>-15,16; 7,78</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-19,88; 1,75</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-21,03; 0,88</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-16,77; 6,41</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-9,43%</t>
+          <t>5,08%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-20,17%</t>
+          <t>-13,61%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-24,67%</t>
+          <t>-15,88%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-14,53%</t>
+          <t>-9,28%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-18,6%</t>
+          <t>-12,55%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-20,46%</t>
+          <t>-16,41%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-12,14%</t>
+          <t>-17,67%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-19,34%</t>
+          <t>-10,32%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-22,53%</t>
+          <t>-5,51%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-15,26%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-16,82%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-9,61%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1412,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-42,09; 24,39</t>
+          <t>-26,07; 40,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-43,08; 8,81</t>
+          <t>-38,34; 23,17</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-47,64; 3,53</t>
+          <t>-40,36; 20,61</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-34,04; 8,78</t>
+          <t>-37,12; 22,7</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-37,74; 2,07</t>
+          <t>-36,45; 15,84</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-39,58; -0,27</t>
+          <t>-35,89; 7,57</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-31,59; 8,96</t>
+          <t>-37,19; 5,36</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-34,49; -1,64</t>
+          <t>-33,15; 16,74</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-37,97; -4,36</t>
+          <t>-24,48; 14,68</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-33,07; 3,22</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-34,18; 1,72</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-26,39; 12,58</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,92</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,6</t>
+          <t>3,73</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>-8,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-10,35</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-11,61</t>
+          <t>-8,82</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,58</t>
+          <t>-9,29</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-5,76</t>
+          <t>-6,54</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-7,01</t>
+          <t>1,58</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-2,68</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-3,13</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-7,28</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-15,84; 10,22</t>
+          <t>-14,28; 18,97</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-12,5; 11,54</t>
+          <t>-10,15; 18,69</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-13,5; 10,22</t>
+          <t>-11,18; 17,91</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-11,77; 10,95</t>
+          <t>-23,35; 6,02</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-19,67; 0,15</t>
+          <t>-11,98; 15,76</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-21,58; -1,41</t>
+          <t>-22,52; 5,13</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-10,55; 6,88</t>
+          <t>-21,22; 4,64</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-12,83; 2,23</t>
+          <t>-20,7; 8,22</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-14,89; 0,53</t>
+          <t>-9,93; 11,7</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-12,52; 7,45</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-13,02; 7,05</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-17,93; 3,24</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-6,79%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-0,33%</t>
+          <t>9,78%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-3,73%</t>
+          <t>8,1%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-1,66%</t>
+          <t>-17,37%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-23,66%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-26,54%</t>
+          <t>-18,76%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-3,64%</t>
+          <t>-19,76%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-13,26%</t>
+          <t>-13,91%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-16,14%</t>
+          <t>3,4%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-5,75%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-6,71%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-15,63%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1688,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-32,73; 26,52</t>
+          <t>-27,52; 50,46</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-25,71; 32,56</t>
+          <t>-19,58; 49,24</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-27,57; 27,9</t>
+          <t>-21,48; 45,27</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-24,06; 28,11</t>
+          <t>-42,5; 16,63</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-41,77; 0,1</t>
+          <t>-23,06; 38,48</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-44,9; -4,02</t>
+          <t>-41,89; 11,94</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-21,9; 17,83</t>
+          <t>-42,55; 11,1</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-27,75; 5,05</t>
+          <t>-37,77; 20,96</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-32,06; 1,41</t>
+          <t>-19,68; 28,01</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-24,36; 17,56</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-25,62; 17,18</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-34,87; 8,21</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1760,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-1,18</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>6,53</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>4,29</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-2,17</t>
+          <t>4,35</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-2,37</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-2,28</t>
+          <t>-9,32</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-1,81</t>
+          <t>-10,8</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>-15,82</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>-0,43</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-0,17</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-2,14</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-4,52</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1828,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-12,29; 10,95</t>
+          <t>-15,2; 15,28</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-11,53; 14,63</t>
+          <t>-8,51; 26,13</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-12,34; 12,59</t>
+          <t>-10,34; 21,79</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-14,97; 11,33</t>
+          <t>-10,85; 21,9</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-15,06; 12,08</t>
+          <t>-20,66; 21,29</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-15,11; 10,39</t>
+          <t>-28,69; 10,53</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-11,17; 7,33</t>
+          <t>-29,83; 8,71</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-10,15; 8,47</t>
+          <t>-32,79; 1,8</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-10,26; 8,45</t>
+          <t>-13,09; 11,67</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-11,87; 13,47</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-13,26; 10,55</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-16,41; 7,65</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1896,62 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-4,67%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>25,21%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-1,73%</t>
+          <t>16,57%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-6,12%</t>
+          <t>16,79%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-6,69%</t>
+          <t>-0,52%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-6,42%</t>
+          <t>-24,65%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-5,98%</t>
+          <t>-28,57%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-2,43%</t>
+          <t>-41,84%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-4,4%</t>
+          <t>-1,4%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-0,56%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-6,9%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-14,62%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1964,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-41,64; 56,43</t>
+          <t>-44,44; 81,79</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-38,37; 70,8</t>
+          <t>-27,47; 149,61</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-42,19; 60,18</t>
+          <t>-33,49; 130,53</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-36,83; 37,8</t>
+          <t>-36,49; 123,8</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-36,08; 41,23</t>
+          <t>-42,85; 80,23</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-37,62; 36,12</t>
+          <t>-58,85; 36,78</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-33,15; 27,1</t>
+          <t>-61,16; 31,31</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-29,77; 33,17</t>
+          <t>-67,25; 10,17</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-29,55; 32,27</t>
+          <t>-38,48; 46,27</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-33,57; 51,86</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-37,49; 42,14</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-44,63; 31,0</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2036,62 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-2,09</t>
+          <t>-3,28</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-1,21</t>
+          <t>-2,69</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-2,12</t>
+          <t>-3,23</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>-7,79</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
+          <t>-4,41</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>-0,57</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
           <t>-1,92</t>
         </is>
       </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-3,96</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>-1,21</t>
-        </is>
-      </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-1,9</t>
+          <t>3,85</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-3,62</t>
+          <t>-4,7</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>-1,72</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>-2,79</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>-1,97</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2104,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-16,33; 12,38</t>
+          <t>-26,74; 17,43</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-14,18; 12,2</t>
+          <t>-22,69; 19,52</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-15,02; 11,02</t>
+          <t>-23,18; 19,11</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-9,57; 11,28</t>
+          <t>-28,16; 11,38</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-11,83; 7,42</t>
+          <t>-18,42; 9,44</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-14,17; 4,36</t>
+          <t>-13,08; 13,73</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-9,65; 7,5</t>
+          <t>-14,77; 11,05</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-11,02; 6,14</t>
+          <t>-11,82; 20,44</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-12,65; 4,1</t>
+          <t>-17,16; 7,78</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-14,79; 9,38</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-15,77; 8,42</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-14,89; 11,0</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2172,62 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-8,68%</t>
+          <t>-9,74%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-5,04%</t>
+          <t>-7,98%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-8,84%</t>
+          <t>-9,59%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-2,54%</t>
+          <t>-23,11%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-13,93%</t>
+          <t>-30,27%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-28,81%</t>
+          <t>-3,92%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-6,57%</t>
+          <t>-13,2%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-10,31%</t>
+          <t>26,45%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-19,71%</t>
+          <t>-20,07%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>-7,33%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>-11,89%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>-8,4%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2240,62 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-55,44; 71,98</t>
+          <t>-63,16; 75,74</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-48,71; 76,47</t>
+          <t>-54,33; 86,21</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-50,77; 69,6</t>
+          <t>-54,25; 85,73</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-52,69; 139,8</t>
+          <t>-64,26; 46,67</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-62,47; 87,38</t>
+          <t>-85,91; 158,52</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-73,17; 43,42</t>
+          <t>-65,13; 200,81</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-41,96; 56,38</t>
+          <t>-69,29; 171,36</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-46,39; 43,7</t>
+          <t>-60,57; 228,04</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-55,67; 27,14</t>
+          <t>-62,36; 41,75</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-52,13; 56,16</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-54,12; 51,25</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-47,85; 72,3</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2312,62 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-3,76</t>
+          <t>-1,85</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-1,95</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-3,76</t>
+          <t>-3,09</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-3,44</t>
+          <t>-2,75</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-5,47</t>
+          <t>-4,01</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-7,12</t>
+          <t>-5,97</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-3,59</t>
+          <t>-6,98</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-3,81</t>
+          <t>-2,55</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-5,51</t>
+          <t>-3,01</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>-3,73</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>-5,1</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>-2,64</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2380,62 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-10,28; 2,72</t>
+          <t>-10,74; 7,45</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-8,77; 4,59</t>
+          <t>-9,34; 6,96</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-9,96; 2,43</t>
+          <t>-12,17; 5,12</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-8,52; 2,26</t>
+          <t>-11,97; 5,92</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-10,92; -0,23</t>
+          <t>-10,78; 3,01</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-12,58; -1,49</t>
+          <t>-12,87; 0,84</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-7,77; 0,46</t>
+          <t>-13,88; -0,62</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 0,17</t>
+          <t>-9,88; 4,28</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-10,11; -1,52</t>
+          <t>-8,27; 2,92</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-8,77; 2,21</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-10,6; 0,29</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-8,58; 2,95</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2448,62 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-10,47%</t>
+          <t>-4,66%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-5,43%</t>
+          <t>-3,09%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-10,48%</t>
+          <t>-7,82%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-9,25%</t>
+          <t>-6,96%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-14,71%</t>
+          <t>-10,24%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-19,16%</t>
+          <t>-15,24%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-9,82%</t>
+          <t>-17,81%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-10,4%</t>
+          <t>-6,5%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-15,06%</t>
+          <t>-7,66%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>-9,47%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>-12,95%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>-6,71%</t>
         </is>
       </c>
     </row>
@@ -2087,61 +2516,83 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-27,0; 8,81</t>
+          <t>-25,39; 19,91</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-22,14; 14,08</t>
+          <t>-21,54; 19,82</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-25,58; 7,56</t>
+          <t>-28,15; 14,11</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-21,62; 6,38</t>
+          <t>-28,58; 16,22</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-27,34; -0,7</t>
+          <t>-25,35; 7,9</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-31,94; -4,35</t>
+          <t>-30,26; 2,29</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-20,52; 1,32</t>
+          <t>-32,16; -1,31</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-20,29; 0,47</t>
+          <t>-23,0; 12,1</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-25,52; -4,27</t>
+          <t>-19,85; 8,07</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-20,84; 6,22</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-25,17; 0,79</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-20,4; 8,09</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
